--- a/Excel reader/Retest/Unknown-retest.xlsx
+++ b/Excel reader/Retest/Unknown-retest.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Hackerearth Username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Enrolment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Problems Solved</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Plagiarism Status</t>
         </is>
@@ -446,34 +451,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
+          <t>aryan505</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Disqualified due to Plagiarism</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
+          <t>abhishekmadvhiya</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -482,16 +497,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+          <t>atulitseth</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -500,16 +520,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>garimapatel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -518,16 +543,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
+          <t>neeleshkumar5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>Disqualified due to Tab switches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -536,16 +568,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
+          <t>chirayu20rockz</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -554,16 +591,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
+          <t>shivam0sharma85</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>Disqualified due to Tab switches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -572,16 +616,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
+          <t>siddjain9425</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -590,34 +639,44 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Disqualified due to Tab switches</t>
-        </is>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
+          <t>sadaat0202.sk</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
+          <t>rajnishkumar02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -626,52 +685,69 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Disqualified due to Tab switches</t>
-        </is>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
+          <t>akash4261</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Disqualified due to Tab switches</t>
-        </is>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
+          <t>shaurya881s</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
+          <t>adityarsingh24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>Disqualified due to Tab switches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -680,34 +756,44 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Disqualified due to Tab switches</t>
-        </is>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
+          <t>erbabujuet</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
+          <t>medha94</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -716,16 +802,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
+          <t>181b199</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -734,250 +825,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
+          <t>kajal654</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Disqualified due to Tab switches</t>
-        </is>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>4</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>4</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
